--- a/Invoices.xlsx
+++ b/Invoices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="50" activeTab="57"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="51" activeTab="58"/>
   </bookViews>
   <sheets>
     <sheet name="Putz 101" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,8 @@
     <sheet name="Putz 406" sheetId="56" r:id="rId56"/>
     <sheet name="Putz 407" sheetId="57" r:id="rId57"/>
     <sheet name="Putz 408" sheetId="58" r:id="rId58"/>
+    <sheet name="Putz 409" sheetId="59" r:id="rId59"/>
+    <sheet name="Putz 410 APS" sheetId="61" r:id="rId60"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="185">
   <si>
     <t>Sr. No</t>
   </si>
@@ -619,6 +621,18 @@
   </si>
   <si>
     <t>Cement dust collector bellow dia245mm</t>
+  </si>
+  <si>
+    <t>151423149 (17-01-2024)</t>
+  </si>
+  <si>
+    <t>Discharge hopper bellow_Dia605x600_MT3.0</t>
+  </si>
+  <si>
+    <t>APS - 151448381 (11-03-2024)</t>
+  </si>
+  <si>
+    <t>151448502 (11-03-2024)</t>
   </si>
 </sst>
 </file>
@@ -807,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1040,6 +1054,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,56 +1530,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="2">
         <f>SUM(G2:G5)</f>
         <v>91479</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="2">
         <f>G6*9%</f>
         <v>8233.11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="2">
         <f>SUM(G6:G8)</f>
         <v>107945.22</v>
@@ -1697,56 +1714,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>124900</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>11241</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>147382</v>
@@ -1830,56 +1847,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="20">
         <f>SUM(G2)</f>
         <v>5614</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="20">
         <f>G3*9%</f>
         <v>505.26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="20">
         <f>SUM(G3:G5)</f>
         <v>6624.52</v>
@@ -1989,56 +2006,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="21">
         <f>SUM(G2:G3)</f>
         <v>41212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="21">
         <f>G4*9%</f>
         <v>3709.08</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="21">
         <f>SUM(G4:G6)</f>
         <v>48630.16</v>
@@ -2123,56 +2140,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="21">
         <f>SUM(G2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="21">
         <f>G3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="21">
         <f>SUM(G3:G5)</f>
         <v>28320</v>
@@ -2329,56 +2346,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="22">
         <f>SUM(G2:G5)</f>
         <v>313513</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="22">
         <f>G6*9%</f>
         <v>28216.17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="22">
         <f>SUM(G6:G8)</f>
         <v>369945.33999999997</v>
@@ -2463,56 +2480,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="22">
         <f>SUM(G2)</f>
         <v>73450</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="22">
         <f>G3*9%</f>
         <v>6610.5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="22">
         <f>SUM(G3:G5)</f>
         <v>86671</v>
@@ -2620,56 +2637,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="23">
         <f>SUM(G2:G3)</f>
         <v>729990</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="23">
         <f>G4*9%</f>
         <v>65699.099999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="23">
         <f>SUM(G4:G6)</f>
         <v>861388.2</v>
@@ -2849,56 +2866,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="23">
         <f>SUM(G2:G6)</f>
         <v>246402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="23">
         <f>G7*9%</f>
         <v>22176.18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="23">
         <f>SUM(G7:G9)</f>
         <v>290754.36</v>
@@ -3154,56 +3171,56 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="27">
         <f>SUM(G2:G9)</f>
         <v>734495</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="27">
         <f>G10*9%</f>
         <v>66104.55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="27">
         <f>SUM(G10:G12)</f>
         <v>866704.10000000009</v>
@@ -3359,56 +3376,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="25">
         <f>SUM(G2:G5)</f>
         <v>70904</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="25">
         <f>G6*9%</f>
         <v>6381.36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="25">
         <f>SUM(G6:G8)</f>
         <v>83666.720000000001</v>
@@ -3611,56 +3628,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="3">
         <f>SUM(G2:G7)</f>
         <v>246185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="3">
         <f>G8*9%</f>
         <v>22156.649999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="3">
         <f>SUM(G8:G10)</f>
         <v>290498.30000000005</v>
@@ -3794,56 +3811,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="28">
         <f>SUM(G2:G4)</f>
         <v>262240</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="28">
         <f>G5*9%</f>
         <v>23601.599999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="28">
         <f>SUM(G5:G7)</f>
         <v>309443.19999999995</v>
@@ -4073,56 +4090,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="28">
         <f>SUM(G2:G8)</f>
         <v>322872</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="28">
         <f>G9*9%</f>
         <v>29058.48</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="28">
         <f>SUM(G9:G11)</f>
         <v>380988.95999999996</v>
@@ -4279,56 +4296,56 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="29">
         <f>SUM(G2:G5)</f>
         <v>161752</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="29">
         <f>G6*9%</f>
         <v>14557.68</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="29">
         <f>SUM(G6:G8)</f>
         <v>190867.36</v>
@@ -4412,56 +4429,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="30">
         <f>SUM(G2)</f>
         <v>18960</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="30">
         <f>G3*9%</f>
         <v>1706.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="30">
         <f>SUM(G3:G5)</f>
         <v>22372.800000000003</v>
@@ -4546,56 +4563,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="32">
         <f>SUM(G2)</f>
         <v>86070</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="32">
         <f>G3*9%</f>
         <v>7746.2999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>101562.6</v>
@@ -4705,56 +4722,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="33">
         <f>SUM(G2:G3)</f>
         <v>113520</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="33">
         <f>G4*9%</f>
         <v>10216.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="33">
         <f>SUM(G4:G6)</f>
         <v>133953.60000000001</v>
@@ -4840,56 +4857,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="35">
         <f>SUM(G2)</f>
         <v>19406</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="35">
         <f>G3*9%</f>
         <v>1746.54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="35">
         <f>SUM(G3:G5)</f>
         <v>22899.08</v>
@@ -5094,56 +5111,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="36">
         <f>SUM(G2:G7)</f>
         <v>305810</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="36">
         <f>G8*9%</f>
         <v>27522.899999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="36">
         <f>SUM(G8:G10)</f>
         <v>360855.80000000005</v>
@@ -5274,56 +5291,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="42">
         <f>SUM(G2:G4)</f>
         <v>155660</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="42">
         <f>G5*9%</f>
         <v>14009.4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="42">
         <f>SUM(G5:G7)</f>
         <v>183678.8</v>
@@ -5454,56 +5471,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="43">
         <f>SUM(G2:G4)</f>
         <v>95390</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="43">
         <f>G5*9%</f>
         <v>8585.1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
         <v>112560.20000000001</v>
@@ -5587,56 +5604,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="11">
         <f>SUM(G2)</f>
         <v>4831</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="11">
         <f>G3*9%</f>
         <v>434.78999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="11">
         <f>SUM(G3:G5)</f>
         <v>5700.58</v>
@@ -5719,56 +5736,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="43">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="43">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="43">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -5852,56 +5869,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="44">
         <f>SUM(G2)</f>
         <v>48310</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="44">
         <f>G3*9%</f>
         <v>4347.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="44">
         <f>SUM(G3:G5)</f>
         <v>57005.8</v>
@@ -6010,56 +6027,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="46">
         <f>SUM(G2:G3)</f>
         <v>122290</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="46">
         <f>G4*9%</f>
         <v>11006.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="46">
         <f>SUM(G4:G6)</f>
         <v>144302.20000000001</v>
@@ -6100,12 +6117,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -6306,12 +6323,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -6325,12 +6342,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -6603,12 +6620,12 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="31.2">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
@@ -6630,12 +6647,12 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -6662,36 +6679,36 @@
       <c r="N32" s="60"/>
     </row>
     <row r="33" spans="1:10" ht="15.6">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="52">
         <f>E32*9%</f>
         <v>167590.79999999999</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.6">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
       <c r="E35" s="52">
         <f>SUM(E32:E34)</f>
         <v>2197301.6</v>
@@ -6827,56 +6844,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="56">
         <f>SUM(G2)</f>
         <v>33684</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="56">
         <f>G3*9%</f>
         <v>3031.56</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="56">
         <f>SUM(G3:G5)</f>
         <v>39747.119999999995</v>
@@ -6918,12 +6935,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -7124,12 +7141,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="52">
         <f>SUM(E3:E12)</f>
         <v>1083930</v>
@@ -7143,12 +7160,12 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="53"/>
     </row>
     <row r="16" spans="1:5" ht="15.6">
@@ -7421,24 +7438,24 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.6" customHeight="1">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="52">
         <f>SUM(E17:E30)</f>
         <v>778190</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="52">
         <f>E13+E31</f>
         <v>1862120</v>
@@ -7682,56 +7699,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="62">
         <f>SUM(G2:G3)</f>
         <v>94980</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="62">
         <f>G4*9%</f>
         <v>8548.1999999999989</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="62">
         <f>SUM(G4:G6)</f>
         <v>112076.4</v>
@@ -7958,56 +7975,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="63">
         <f>SUM(G2:G8)</f>
         <v>286755</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="63">
         <f>G9*9%</f>
         <v>25807.95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="63">
         <f>SUM(G9:G11)</f>
         <v>338370.9</v>
@@ -8137,56 +8154,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="64">
         <f>SUM(G2:G4)</f>
         <v>258115</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="64">
         <f>G5*9%</f>
         <v>23230.35</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="64">
         <f>SUM(G5:G7)</f>
         <v>304575.69999999995</v>
@@ -8294,56 +8311,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="64">
         <f>SUM(G2:G3)</f>
         <v>113804</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="64">
         <f>G4*9%</f>
         <v>10242.359999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="64">
         <f>SUM(G4:G6)</f>
         <v>134288.72</v>
@@ -8574,56 +8591,56 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="11">
         <f>SUM(G2:G8)</f>
         <v>249351</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="11">
         <f>G9*9%</f>
         <v>22441.59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="11">
         <f>SUM(G9:G11)</f>
         <v>294234.18000000005</v>
@@ -8697,36 +8714,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -8806,56 +8823,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="65">
         <f>SUM(G2)</f>
         <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="65">
         <f>G3*9%</f>
         <v>8100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="65">
         <f>SUM(G3:G5)</f>
         <v>106200</v>
@@ -8925,36 +8942,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>13220</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="17">
         <f>E3*18%</f>
         <v>2379.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="17">
         <f>SUM(E3:E4)</f>
         <v>15599.6</v>
@@ -9023,48 +9040,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>130208</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>11718.72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>153645.44</v>
@@ -9216,48 +9233,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>35593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>3203.37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>41999.740000000005</v>
@@ -9340,56 +9357,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>56140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>5052.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>66245.2</v>
@@ -9472,56 +9489,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="67">
         <f>SUM(G2)</f>
         <v>70740</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="67">
         <f>G3*9%</f>
         <v>6366.5999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="67">
         <f>SUM(G3:G5)</f>
         <v>83473.200000000012</v>
@@ -9588,48 +9605,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>19560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1760.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>23080.800000000003</v>
@@ -9711,56 +9728,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="68">
         <f>SUM(G2)</f>
         <v>144300</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="68">
         <f>G3*9%</f>
         <v>12987</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="68">
         <f>SUM(G3:G5)</f>
         <v>170274</v>
@@ -9832,48 +9849,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>4250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>382.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>5015</v>
@@ -9979,56 +9996,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="12">
         <f>SUM(G2:G3)</f>
         <v>132820</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="12">
         <f>G4*9%</f>
         <v>11953.8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="12">
         <f>SUM(G4:G6)</f>
         <v>156727.59999999998</v>
@@ -10150,12 +10167,12 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
@@ -10174,12 +10191,12 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
@@ -10190,48 +10207,48 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10410,48 +10427,48 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="69">
         <f>SUM(E2:E8)</f>
         <v>69690</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="17">
         <f>E9*9%</f>
         <v>6272.0999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="17">
         <f>SUM(E9:E11)</f>
         <v>82234.200000000012</v>
@@ -10571,72 +10588,72 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="69">
         <f>SUM(E2:E5)</f>
         <v>184600</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="69">
         <f>127000*9%</f>
         <v>11430</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="69">
         <f>E3*14%</f>
         <v>8064.0000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="69">
         <f>SUM(E6:E10)</f>
         <v>223588</v>
@@ -10841,56 +10858,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="72">
         <f>SUM(G2:G7)</f>
         <v>442305</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="72">
         <f>G8*9%</f>
         <v>39807.449999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="72">
         <f>SUM(G8:G10)</f>
         <v>521919.9</v>
@@ -10977,56 +10994,56 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="73">
         <f>SUM(G2)</f>
         <v>84210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="73">
         <f>G3*9%</f>
         <v>7578.9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="73">
         <f>SUM(G3:G5)</f>
         <v>99367.799999999988</v>
@@ -11101,52 +11118,52 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="75">
         <f>SUM(F2)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="75">
         <f>F3*9%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="75">
         <f>SUM(F3:F5)</f>
         <v>17700</v>
@@ -11326,56 +11343,56 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="76">
         <f>SUM(G2:G6)</f>
         <v>228015</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="76">
         <f>G7*9%</f>
         <v>20521.349999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
       <c r="G10" s="76">
         <f>SUM(G7:G9)</f>
         <v>269057.7</v>
@@ -11578,56 +11595,56 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="78">
         <f>SUM(G2:G7)</f>
         <v>292660</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="78">
         <f>G8*9%</f>
         <v>26339.399999999998</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
       <c r="G10" s="78">
         <f>G8*9%</f>
         <v>26339.399999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
       <c r="G11" s="78">
         <f>SUM(G8:G10)</f>
         <v>345338.80000000005</v>
@@ -11648,8 +11665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11755,56 +11772,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="80">
         <f>SUM(G2:G4)</f>
         <v>143001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
       <c r="G6" s="80">
         <f>G5*9%</f>
         <v>12870.09</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="80">
         <f>G5*9%</f>
         <v>12870.09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
       <c r="G8" s="80">
         <f>SUM(G5:G7)</f>
         <v>168741.18</v>
@@ -11816,6 +11833,257 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" customWidth="1"/>
+    <col min="5" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" customHeight="1">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.399999999999999" customHeight="1">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="10">
+        <v>616026</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="31">
+        <v>10</v>
+      </c>
+      <c r="F2" s="31">
+        <v>5614</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G7" si="0">E2*F2</f>
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.8" customHeight="1">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="5">
+        <v>616039</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="31">
+        <v>9</v>
+      </c>
+      <c r="F3" s="31">
+        <v>6521</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>58689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="8">
+        <v>663094</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="31">
+        <v>5</v>
+      </c>
+      <c r="F4" s="31">
+        <v>10602</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>53010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21.6" customHeight="1">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="4">
+        <v>632215</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="31">
+        <v>10</v>
+      </c>
+      <c r="F5" s="31">
+        <v>5738</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>57380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.2" customHeight="1">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="5">
+        <v>615698</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="31">
+        <v>5</v>
+      </c>
+      <c r="F6" s="31">
+        <v>4831</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>24155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.2" customHeight="1">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="41">
+        <v>687349</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="31">
+        <v>50</v>
+      </c>
+      <c r="F7" s="31">
+        <v>8463</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>423150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="81">
+        <f>SUM(G2:G7)</f>
+        <v>672524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="81">
+        <f>G8*9%</f>
+        <v>60527.159999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="81">
+        <f>G8*9%</f>
+        <v>60527.159999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="81">
+        <f>SUM(G8:G10)</f>
+        <v>793578.32000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11876,48 +12144,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="17">
         <f>SUM(E2)</f>
         <v>18560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="17">
         <f>E3*9%</f>
         <v>1670.3999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="17">
         <f>SUM(E3:E5)</f>
         <v>21900.800000000003</v>
@@ -11929,6 +12197,139 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42.6" customHeight="1">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="4">
+        <v>646872</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="31">
+        <v>5</v>
+      </c>
+      <c r="F2" s="31">
+        <v>3555</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2" si="0">E2*F2</f>
+        <v>17775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="81">
+        <f>SUM(G2)</f>
+        <v>17775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="81">
+        <f>G3*9%</f>
+        <v>1599.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="81">
+        <f>G3*9%</f>
+        <v>1599.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="81">
+        <f>SUM(G3:G5)</f>
+        <v>20974.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12027,56 +12428,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="13">
         <f>SUM(G2:G3)</f>
         <v>128790</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="13">
         <f>G4*9%</f>
         <v>11591.1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="13">
         <f>SUM(G4:G6)</f>
         <v>151972.20000000001</v>
@@ -12186,56 +12587,56 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="18">
         <f>SUM(G2:G3)</f>
         <v>196927</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="18">
         <f>G4*9%</f>
         <v>17723.43</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="18">
         <f>SUM(G4:G6)</f>
         <v>232373.86</v>
@@ -12368,56 +12769,56 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="19">
         <f>SUM(G2:G4)</f>
         <v>189083</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="19">
         <f>G5*9%</f>
         <v>17017.47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="19">
         <f>SUM(G5:G7)</f>
         <v>223117.94</v>
